--- a/Result/Monk  - MYSQL -PASSENGER - MultiVips.xlsx
+++ b/Result/Monk  - MYSQL -PASSENGER - MultiVips.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="59">
   <si>
     <t>Url</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>Casos</t>
-  </si>
-  <si>
-    <t>Simple Concurrent</t>
-  </si>
-  <si>
-    <t>Gaussian Concurrent</t>
   </si>
   <si>
     <t>Throughtput 5</t>
@@ -109,9 +103,6 @@
     <t>Testeo</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>5.0 /sec</t>
   </si>
   <si>
@@ -131,24 +122,6 @@
   </si>
   <si>
     <t>30.0 /sec</t>
-  </si>
-  <si>
-    <t>35.0 /sec</t>
-  </si>
-  <si>
-    <t>40.0 /sec</t>
-  </si>
-  <si>
-    <t>Throughtput 35</t>
-  </si>
-  <si>
-    <t>Throughtput 40</t>
-  </si>
-  <si>
-    <t>Throughtput 45</t>
-  </si>
-  <si>
-    <t>45.0 /sec</t>
   </si>
   <si>
     <t>ROR 3 - Mysql - PASSENGER</t>
@@ -279,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -494,93 +467,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -618,22 +509,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +541,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$7</c:f>
+              <c:f>Resumen!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -668,9 +552,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -692,21 +576,12 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$7</c:f>
+              <c:f>Resumen!$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -722,7 +597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$8</c:f>
+              <c:f>Resumen!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -733,9 +608,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -757,21 +632,12 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$8</c:f>
+              <c:f>Resumen!$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -787,7 +653,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$9</c:f>
+              <c:f>Resumen!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -798,9 +664,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -822,21 +688,12 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$9</c:f>
+              <c:f>Resumen!$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -852,7 +709,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$10</c:f>
+              <c:f>Resumen!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -863,9 +720,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -887,21 +744,12 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$10</c:f>
+              <c:f>Resumen!$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -917,7 +765,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$11</c:f>
+              <c:f>Resumen!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -928,9 +776,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -952,21 +800,12 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$11</c:f>
+              <c:f>Resumen!$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -982,7 +821,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$12</c:f>
+              <c:f>Resumen!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -993,9 +832,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1017,21 +856,12 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$12</c:f>
+              <c:f>Resumen!$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1047,7 +877,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$13</c:f>
+              <c:f>Resumen!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1058,9 +888,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1082,21 +912,12 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$13</c:f>
+              <c:f>Resumen!$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1112,20 +933,17 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$14</c:f>
+              <c:f>Resumen!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 35</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1147,27 +965,15 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$14</c:f>
+              <c:f>Resumen!$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1177,20 +983,17 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$15</c:f>
+              <c:f>Resumen!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 40</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1212,27 +1015,15 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$15</c:f>
+              <c:f>Resumen!$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1242,20 +1033,17 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$A$16</c:f>
+              <c:f>Resumen!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 45</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$H$7:$H$16</c:f>
+              <c:f>Resumen!$H$5:$H$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1277,36 +1065,24 @@
                 <c:pt idx="6">
                   <c:v>28.2/sec</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$16</c:f>
+              <c:f>Resumen!$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68268800"/>
-        <c:axId val="68270336"/>
+        <c:axId val="83766272"/>
+        <c:axId val="83813120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68268800"/>
+        <c:axId val="83766272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,14 +1090,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68270336"/>
+        <c:crossAx val="83813120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68270336"/>
+        <c:axId val="83813120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1105,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68268800"/>
+        <c:crossAx val="83766272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1342,7 +1118,137 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resumen!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg gen time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resumen!$H$5:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9/sec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9/sec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.5/sec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.1/sec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.7/sec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.2/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resumen!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>84.830666666666602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.721000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.933666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.327666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.940666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208.66933333333299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>368.97266666666599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84693376"/>
+        <c:axId val="84694912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84693376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84694912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84694912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84693376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1353,15 +1259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1375,6 +1281,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1668,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1686,10 +1622,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
@@ -1708,136 +1644,142 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22">
-        <f>'Simple Concurrent'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
-        <f>'Simple Concurrent'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="22">
-        <f>'Simple Concurrent'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
-        <f>'Simple Concurrent'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <f>'Simple Concurrent'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <f>'Simple Concurrent'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <f>'Simple Concurrent'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="28">
-        <f>'Gaussian Concurrent'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
-        <f>'Gaussian Concurrent'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="28">
-        <f>'Gaussian Concurrent'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="28">
-        <f>'Gaussian Concurrent'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="28">
-        <f>'Gaussian Concurrent'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="28">
-        <f>'Gaussian Concurrent'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="28">
-        <f>'Gaussian Concurrent'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="B5" s="10">
         <f>'Throughtput 5'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C5" s="10">
         <f>'Throughtput 5'!C2</f>
         <v>84.830666666666602</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D5" s="10">
         <f>'Throughtput 5'!D2</f>
         <v>35.499314447214601</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E5" s="10" t="str">
         <f>'Throughtput 5'!E2</f>
         <v>53.0</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F5" s="10" t="str">
         <f>'Throughtput 5'!F2</f>
         <v>1135.0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G5" s="10">
         <f>'Throughtput 5'!G2</f>
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H5" s="10" t="str">
         <f>'Throughtput 5'!H2</f>
         <v>5.0/sec</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>28</v>
+      <c r="I5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14">
+        <f>'Throughtput 8'!B2</f>
+        <v>3000</v>
+      </c>
+      <c r="C6" s="14">
+        <f>'Throughtput 8'!C2</f>
+        <v>82.721000000000004</v>
+      </c>
+      <c r="D6" s="14">
+        <f>'Throughtput 8'!D2</f>
+        <v>25.516226712950001</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f>'Throughtput 8'!E2</f>
+        <v>53.0</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f>'Throughtput 8'!F2</f>
+        <v>668.0</v>
+      </c>
+      <c r="G6" s="14">
+        <f>'Throughtput 8'!G2</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="14" t="str">
+        <f>'Throughtput 8'!H2</f>
+        <v>7.9/sec</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11">
+        <f>'Throughtput 10'!B2</f>
+        <v>3000</v>
+      </c>
+      <c r="C7" s="11">
+        <f>'Throughtput 10'!C2</f>
+        <v>103.933666666666</v>
+      </c>
+      <c r="D7" s="11">
+        <f>'Throughtput 10'!D2</f>
+        <v>143.81824617628399</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>'Throughtput 10'!E2</f>
+        <v>54.0</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f>'Throughtput 10'!F2</f>
+        <v>4738.0</v>
+      </c>
+      <c r="G7" s="11">
+        <f>'Throughtput 10'!G2</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="str">
+        <f>'Throughtput 10'!H2</f>
+        <v>9.9/sec</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1848,38 +1790,38 @@
         <v>13</v>
       </c>
       <c r="B8" s="14">
-        <f>'Throughtput 8'!B2</f>
+        <f>'Throughtput 15'!B2</f>
         <v>3000</v>
       </c>
       <c r="C8" s="14">
-        <f>'Throughtput 8'!C2</f>
-        <v>82.721000000000004</v>
+        <f>'Throughtput 15'!C2</f>
+        <v>108.327666666666</v>
       </c>
       <c r="D8" s="14">
-        <f>'Throughtput 8'!D2</f>
-        <v>25.516226712950001</v>
+        <f>'Throughtput 15'!D2</f>
+        <v>64.653597228271394</v>
       </c>
       <c r="E8" s="14" t="str">
-        <f>'Throughtput 8'!E2</f>
+        <f>'Throughtput 15'!E2</f>
         <v>53.0</v>
       </c>
       <c r="F8" s="14" t="str">
-        <f>'Throughtput 8'!F2</f>
-        <v>668.0</v>
+        <f>'Throughtput 15'!F2</f>
+        <v>1054.0</v>
       </c>
       <c r="G8" s="14">
-        <f>'Throughtput 8'!G2</f>
+        <f>'Throughtput 15'!G2</f>
         <v>0</v>
       </c>
       <c r="H8" s="14" t="str">
-        <f>'Throughtput 8'!H2</f>
-        <v>7.9/sec</v>
+        <f>'Throughtput 15'!H2</f>
+        <v>14.5/sec</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>29</v>
+      <c r="I8" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1887,38 +1829,38 @@
         <v>14</v>
       </c>
       <c r="B9" s="11">
-        <f>'Throughtput 10'!B2</f>
+        <f>'Throughtput 20'!B2</f>
         <v>3000</v>
       </c>
       <c r="C9" s="11">
-        <f>'Throughtput 10'!C2</f>
-        <v>103.933666666666</v>
+        <f>'Throughtput 20'!C2</f>
+        <v>133.940666666666</v>
       </c>
       <c r="D9" s="11">
-        <f>'Throughtput 10'!D2</f>
-        <v>143.81824617628399</v>
+        <f>'Throughtput 20'!D2</f>
+        <v>57.2905211434569</v>
       </c>
       <c r="E9" s="11" t="str">
-        <f>'Throughtput 10'!E2</f>
+        <f>'Throughtput 20'!E2</f>
         <v>54.0</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>'Throughtput 10'!F2</f>
-        <v>4738.0</v>
+        <f>'Throughtput 20'!F2</f>
+        <v>919.0</v>
       </c>
       <c r="G9" s="11">
-        <f>'Throughtput 10'!G2</f>
+        <f>'Throughtput 20'!G2</f>
         <v>0</v>
       </c>
       <c r="H9" s="11" t="str">
-        <f>'Throughtput 10'!H2</f>
-        <v>9.9/sec</v>
+        <f>'Throughtput 20'!H2</f>
+        <v>19.1/sec</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>30</v>
+      <c r="I9" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1926,276 +1868,108 @@
         <v>15</v>
       </c>
       <c r="B10" s="14">
-        <f>'Throughtput 15'!B2</f>
+        <f>'Throughtput 25'!B2</f>
         <v>3000</v>
       </c>
       <c r="C10" s="14">
-        <f>'Throughtput 15'!C2</f>
-        <v>108.327666666666</v>
+        <f>'Throughtput 25'!C2</f>
+        <v>208.66933333333299</v>
       </c>
       <c r="D10" s="14">
-        <f>'Throughtput 15'!D2</f>
-        <v>64.653597228271394</v>
+        <f>'Throughtput 25'!D2</f>
+        <v>179.172907158296</v>
       </c>
       <c r="E10" s="14" t="str">
-        <f>'Throughtput 15'!E2</f>
-        <v>53.0</v>
+        <f>'Throughtput 25'!E2</f>
+        <v>55.0</v>
       </c>
       <c r="F10" s="14" t="str">
-        <f>'Throughtput 15'!F2</f>
-        <v>1054.0</v>
+        <f>'Throughtput 25'!F2</f>
+        <v>2168.0</v>
       </c>
       <c r="G10" s="14">
-        <f>'Throughtput 15'!G2</f>
+        <f>'Throughtput 25'!G2</f>
         <v>0</v>
       </c>
       <c r="H10" s="14" t="str">
-        <f>'Throughtput 15'!H2</f>
-        <v>14.5/sec</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11">
-        <f>'Throughtput 20'!B2</f>
-        <v>3000</v>
-      </c>
-      <c r="C11" s="11">
-        <f>'Throughtput 20'!C2</f>
-        <v>133.940666666666</v>
-      </c>
-      <c r="D11" s="11">
-        <f>'Throughtput 20'!D2</f>
-        <v>57.2905211434569</v>
-      </c>
-      <c r="E11" s="11" t="str">
-        <f>'Throughtput 20'!E2</f>
-        <v>54.0</v>
-      </c>
-      <c r="F11" s="11" t="str">
-        <f>'Throughtput 20'!F2</f>
-        <v>919.0</v>
-      </c>
-      <c r="G11" s="11">
-        <f>'Throughtput 20'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11" t="str">
-        <f>'Throughtput 20'!H2</f>
-        <v>19.1/sec</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="14">
-        <f>'Throughtput 25'!B2</f>
-        <v>3000</v>
-      </c>
-      <c r="C12" s="14">
-        <f>'Throughtput 25'!C2</f>
-        <v>208.66933333333299</v>
-      </c>
-      <c r="D12" s="14">
-        <f>'Throughtput 25'!D2</f>
-        <v>179.172907158296</v>
-      </c>
-      <c r="E12" s="14" t="str">
-        <f>'Throughtput 25'!E2</f>
-        <v>55.0</v>
-      </c>
-      <c r="F12" s="14" t="str">
-        <f>'Throughtput 25'!F2</f>
-        <v>2168.0</v>
-      </c>
-      <c r="G12" s="14">
-        <f>'Throughtput 25'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="14" t="str">
         <f>'Throughtput 25'!H2</f>
         <v>23.7/sec</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>33</v>
+      <c r="I10" s="21" t="s">
+        <v>30</v>
       </c>
-      <c r="J12">
+      <c r="J10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B11" s="12">
         <f>'Throughtput 30'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C11" s="12">
         <f>'Throughtput 30'!C2</f>
         <v>368.97266666666599</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D11" s="12">
         <f>'Throughtput 30'!D2</f>
         <v>218.661200459117</v>
       </c>
-      <c r="E13" s="12" t="str">
+      <c r="E11" s="12" t="str">
         <f>'Throughtput 30'!E2</f>
         <v>61.0</v>
       </c>
-      <c r="F13" s="12" t="str">
+      <c r="F11" s="12" t="str">
         <f>'Throughtput 30'!F2</f>
         <v>3204.0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G11" s="12">
         <f>'Throughtput 30'!G2</f>
         <v>0</v>
       </c>
-      <c r="H13" s="12" t="str">
+      <c r="H11" s="12" t="str">
         <f>'Throughtput 30'!H2</f>
         <v>28.2/sec</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>34</v>
+      <c r="I11" s="23" t="s">
+        <v>31</v>
       </c>
-      <c r="J13">
+      <c r="J11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="34">
-        <f>'Throughtput 35'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="36">
-        <f>'Throughtput 35'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="34">
-        <f>'Throughtput 35'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="34">
-        <f>'Throughtput 35'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="34">
-        <f>'Throughtput 35'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="34">
-        <f>'Throughtput 35'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <f>'Throughtput 35'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14">
-        <f>35-33.6</f>
-        <v>1.3999999999999986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="12">
-        <f>'Throughtput 40'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <f>'Throughtput 40'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <f>'Throughtput 40'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <f>'Throughtput 40'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <f>'Throughtput 40'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <f>'Throughtput 40'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <f>'Throughtput 40'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15">
-        <f>40-37.3</f>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="34">
-        <f>'Throughtput 45'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="34">
-        <f>'Throughtput 45'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="34">
-        <f>'Throughtput 45'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="34">
-        <f>'Throughtput 45'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="34">
-        <f>'Throughtput 45'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="34">
-        <f>'Throughtput 45'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="34">
-        <f>'Throughtput 45'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16">
-        <f>45-37.7</f>
-        <v>7.2999999999999972</v>
-      </c>
+    <row r="12" spans="1:10" s="26" customFormat="1">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" s="26" customFormat="1">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" s="26" customFormat="1">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2248,7 +2022,7 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -2260,19 +2034,19 @@
         <v>218.661200459117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -29587,7 +29361,7 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29599,19 +29373,19 @@
         <v>35.499314447214601</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -29664,7 +29438,7 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29676,19 +29450,19 @@
         <v>25.516226712950001</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -29741,7 +29515,7 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29753,19 +29527,19 @@
         <v>143.81824617628399</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -29817,7 +29591,7 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29829,23 +29603,23 @@
         <v>64.653597228271394</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="I3" s="30"/>
+      <c r="I3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29900,7 +29674,7 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29912,19 +29686,19 @@
         <v>57.2905211434569</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -29976,7 +29750,7 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29988,19 +29762,19 @@
         <v>179.172907158296</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
